--- a/Code/Results/Cases/Case_6_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_39/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.35576598260991</v>
+        <v>1.117137797940842</v>
       </c>
       <c r="C2">
-        <v>0.2456670443562388</v>
+        <v>0.1080962782297163</v>
       </c>
       <c r="D2">
-        <v>0.0004182353829085272</v>
+        <v>0.07877060985044437</v>
       </c>
       <c r="E2">
-        <v>0.02901944987521698</v>
+        <v>0.05983971464644</v>
       </c>
       <c r="F2">
-        <v>2.808740704438932</v>
+        <v>1.041368541936954</v>
       </c>
       <c r="G2">
-        <v>0.0008465306603756551</v>
+        <v>0.0008383447366267299</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08601565598635474</v>
+        <v>0.07691173340035107</v>
       </c>
       <c r="K2">
-        <v>0.5236115548513425</v>
+        <v>0.9022485264405873</v>
       </c>
       <c r="L2">
-        <v>0.2066813247720773</v>
+        <v>0.1822976067213702</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.08120683639595</v>
+        <v>2.779590872700595</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.069826619163678</v>
+        <v>0.9752275769339747</v>
       </c>
       <c r="C3">
-        <v>0.2134407538880367</v>
+        <v>0.1064078218033444</v>
       </c>
       <c r="D3">
-        <v>0.0003483926916212354</v>
+        <v>0.07045660572344303</v>
       </c>
       <c r="E3">
-        <v>0.02875989781170762</v>
+        <v>0.05768567130687252</v>
       </c>
       <c r="F3">
-        <v>2.648629491072626</v>
+        <v>1.029394506373542</v>
       </c>
       <c r="G3">
-        <v>0.0008545956019164423</v>
+        <v>0.0008424040383495857</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08567512240518127</v>
+        <v>0.07776308995095249</v>
       </c>
       <c r="K3">
-        <v>0.4559924799233244</v>
+        <v>0.7840286392443545</v>
       </c>
       <c r="L3">
-        <v>0.186382293044673</v>
+        <v>0.1637166316257606</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.962331096063124</v>
+        <v>2.778476755663434</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.89736592691736</v>
+        <v>0.8885051207761308</v>
       </c>
       <c r="C4">
-        <v>0.1938334025206245</v>
+        <v>0.1053881788434339</v>
       </c>
       <c r="D4">
-        <v>0.00030999185861047</v>
+        <v>0.06539552553230976</v>
       </c>
       <c r="E4">
-        <v>0.02862563522012262</v>
+        <v>0.05642494786924601</v>
       </c>
       <c r="F4">
-        <v>2.554786374836937</v>
+        <v>1.023637726198345</v>
       </c>
       <c r="G4">
-        <v>0.000859687592745141</v>
+        <v>0.0008449810669739938</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08555059717710733</v>
+        <v>0.07837570612777967</v>
       </c>
       <c r="K4">
-        <v>0.4151284516541125</v>
+        <v>0.7115877460560824</v>
       </c>
       <c r="L4">
-        <v>0.1742049854869308</v>
+        <v>0.152434662104568</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.892714886243937</v>
+        <v>2.782303230109022</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.827784441974615</v>
+        <v>0.8532541322267093</v>
       </c>
       <c r="C5">
-        <v>0.1858793579996814</v>
+        <v>0.1049767970734976</v>
       </c>
       <c r="D5">
-        <v>0.0002952734097796395</v>
+        <v>0.0633433067146143</v>
       </c>
       <c r="E5">
-        <v>0.02857703560810521</v>
+        <v>0.05592623299261668</v>
       </c>
       <c r="F5">
-        <v>2.517581196066885</v>
+        <v>1.021678673538197</v>
       </c>
       <c r="G5">
-        <v>0.0008617991943176691</v>
+        <v>0.0008460528531013588</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08552017025604997</v>
+        <v>0.07864744253734557</v>
       </c>
       <c r="K5">
-        <v>0.3986210370196446</v>
+        <v>0.6820936206371471</v>
       </c>
       <c r="L5">
-        <v>0.1693085172745938</v>
+        <v>0.147866765736282</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.865127747348666</v>
+        <v>2.784957423446713</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.816270303065835</v>
+        <v>0.8474057140222442</v>
       </c>
       <c r="C6">
-        <v>0.1845605245970887</v>
+        <v>0.1049087324431426</v>
       </c>
       <c r="D6">
-        <v>0.0002928803179320649</v>
+        <v>0.06300313188163642</v>
       </c>
       <c r="E6">
-        <v>0.02856932939035151</v>
+        <v>0.05584431550624558</v>
       </c>
       <c r="F6">
-        <v>2.51146351330047</v>
+        <v>1.021376336520362</v>
       </c>
       <c r="G6">
-        <v>0.0008621520707110835</v>
+        <v>0.0008462321385348526</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08551631866957976</v>
+        <v>0.07869388388439269</v>
       </c>
       <c r="K6">
-        <v>0.3958882097114014</v>
+        <v>0.6771974196408337</v>
       </c>
       <c r="L6">
-        <v>0.168499271536291</v>
+        <v>0.147109992921223</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.860592309300074</v>
+        <v>2.785463163489766</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.896424807777379</v>
+        <v>0.8880293710216449</v>
       </c>
       <c r="C7">
-        <v>0.1937259967463518</v>
+        <v>0.1053826142844656</v>
       </c>
       <c r="D7">
-        <v>0.0003097898363884077</v>
+        <v>0.06536780825452837</v>
       </c>
       <c r="E7">
-        <v>0.02862495528725884</v>
+        <v>0.05641816179417702</v>
       </c>
       <c r="F7">
-        <v>2.55428052483316</v>
+        <v>1.023609757624918</v>
       </c>
       <c r="G7">
-        <v>0.0008597159207140869</v>
+        <v>0.0008449954334046981</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08555010576266042</v>
+        <v>0.0783792820739464</v>
       </c>
       <c r="K7">
-        <v>0.4149052644496649</v>
+        <v>0.7111898859204757</v>
       </c>
       <c r="L7">
-        <v>0.1741386909969478</v>
+        <v>0.152372940959367</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.892339754165292</v>
+        <v>2.782334642981169</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.256476626015854</v>
+        <v>1.06811299787779</v>
       </c>
       <c r="C8">
-        <v>0.2345124027497718</v>
+        <v>0.1075104514701763</v>
       </c>
       <c r="D8">
-        <v>0.0003930964249339031</v>
+        <v>0.07589436984453357</v>
       </c>
       <c r="E8">
-        <v>0.02892462131131524</v>
+        <v>0.05908384021999602</v>
       </c>
       <c r="F8">
-        <v>2.752553424095424</v>
+        <v>1.036899973080899</v>
       </c>
       <c r="G8">
-        <v>0.0008492832203174437</v>
+        <v>0.0008397270421372505</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08588009734573276</v>
+        <v>0.07718631172682677</v>
       </c>
       <c r="K8">
-        <v>0.5001484137051975</v>
+        <v>0.8614491940158189</v>
       </c>
       <c r="L8">
-        <v>0.1996189320358042</v>
+        <v>0.1758631407475519</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.039476637300737</v>
+        <v>2.77824628106012</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.99136830481882</v>
+        <v>1.425216458103051</v>
       </c>
       <c r="C9">
-        <v>0.3163759484207276</v>
+        <v>0.1118269144463255</v>
       </c>
       <c r="D9">
-        <v>0.0006024164505329388</v>
+        <v>0.09692282090163928</v>
       </c>
       <c r="E9">
-        <v>0.02972134580225294</v>
+        <v>0.06482700239136818</v>
       </c>
       <c r="F9">
-        <v>3.18107339123415</v>
+        <v>1.076301555029325</v>
       </c>
       <c r="G9">
-        <v>0.0008298697745691645</v>
+        <v>0.0008300502043854957</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08724478243339107</v>
+        <v>0.07558432540544047</v>
       </c>
       <c r="K9">
-        <v>0.6734777616066125</v>
+        <v>1.157800019952759</v>
       </c>
       <c r="L9">
-        <v>0.2521636759349946</v>
+        <v>0.2230454610642028</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.358069406401242</v>
+        <v>2.807893421731251</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.555364415462918</v>
+        <v>1.691053096043873</v>
       </c>
       <c r="C10">
-        <v>0.3783808119775074</v>
+        <v>0.1150988293437081</v>
       </c>
       <c r="D10">
-        <v>0.0008013773300379334</v>
+        <v>0.1126662678156265</v>
       </c>
       <c r="E10">
-        <v>0.03044949048216594</v>
+        <v>0.06939791535560147</v>
       </c>
       <c r="F10">
-        <v>3.526713880431174</v>
+        <v>1.114388039701396</v>
       </c>
       <c r="G10">
-        <v>0.000816141717986156</v>
+        <v>0.0008233148580203937</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08875647975815326</v>
+        <v>0.07489259067087772</v>
       </c>
       <c r="K10">
-        <v>0.8061018789428687</v>
+        <v>1.377366225192446</v>
       </c>
       <c r="L10">
-        <v>0.2928151384906101</v>
+        <v>0.2585601820559731</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.615541605488829</v>
+        <v>2.855403020725561</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.81882043935741</v>
+        <v>1.812997008712102</v>
       </c>
       <c r="C11">
-        <v>0.4071752309375256</v>
+        <v>0.116612362954946</v>
       </c>
       <c r="D11">
-        <v>0.000906441019695059</v>
+        <v>0.1199061520529483</v>
       </c>
       <c r="E11">
-        <v>0.03081563295021716</v>
+        <v>0.07156241089370141</v>
       </c>
       <c r="F11">
-        <v>3.692317141437201</v>
+        <v>1.133937837655054</v>
       </c>
       <c r="G11">
-        <v>0.0008099870165900202</v>
+        <v>0.0008203262429519779</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08957280740333573</v>
+        <v>0.07469173561612052</v>
       </c>
       <c r="K11">
-        <v>0.8679694507481628</v>
+        <v>1.477845198804772</v>
       </c>
       <c r="L11">
-        <v>0.3118737474731574</v>
+        <v>0.2749414647771999</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.739042001922215</v>
+        <v>2.88326105871667</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.9197318463996</v>
+        <v>1.859341998262892</v>
       </c>
       <c r="C12">
-        <v>0.4181809664532636</v>
+        <v>0.1171893986781427</v>
       </c>
       <c r="D12">
-        <v>0.0009488018853054392</v>
+        <v>0.1226601557128362</v>
       </c>
       <c r="E12">
-        <v>0.03095966802544758</v>
+        <v>0.0723950671953375</v>
       </c>
       <c r="F12">
-        <v>3.756388980105555</v>
+        <v>1.14168201380501</v>
       </c>
       <c r="G12">
-        <v>0.0008076669695284642</v>
+        <v>0.0008192048615271503</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08990214203874913</v>
+        <v>0.07463280331600686</v>
       </c>
       <c r="K12">
-        <v>0.8916547019333478</v>
+        <v>1.515996833279331</v>
       </c>
       <c r="L12">
-        <v>0.3191835610565477</v>
+        <v>0.2811805778698755</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.78684735424504</v>
+        <v>2.894767329034636</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.897945108098497</v>
+        <v>1.849352963653899</v>
       </c>
       <c r="C13">
-        <v>0.4158058514863114</v>
+        <v>0.1170649458111086</v>
       </c>
       <c r="D13">
-        <v>0.0009395555865339134</v>
+        <v>0.1220664597740466</v>
       </c>
       <c r="E13">
-        <v>0.03092840171728817</v>
+        <v>0.0722151485060607</v>
       </c>
       <c r="F13">
-        <v>3.742526691219439</v>
+        <v>1.139998641989052</v>
       </c>
       <c r="G13">
-        <v>0.0008081662022362434</v>
+        <v>0.0008194459192937197</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08983028573845431</v>
+        <v>0.07464472104043196</v>
       </c>
       <c r="K13">
-        <v>0.886541585232834</v>
+        <v>1.507775363743775</v>
       </c>
       <c r="L13">
-        <v>0.3176049424240972</v>
+        <v>0.279835219915455</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.776503334730009</v>
+        <v>2.89224570033025</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.82709854985535</v>
+        <v>1.816806352189786</v>
       </c>
       <c r="C14">
-        <v>0.4080785295879821</v>
+        <v>0.1166597563040739</v>
       </c>
       <c r="D14">
-        <v>0.00090987139484211</v>
+        <v>0.1201324696660606</v>
       </c>
       <c r="E14">
-        <v>0.03082737263431845</v>
+        <v>0.07163064876418446</v>
       </c>
       <c r="F14">
-        <v>3.697560111501161</v>
+        <v>1.134567992516878</v>
       </c>
       <c r="G14">
-        <v>0.0008097959469560894</v>
+        <v>0.0008202337818617754</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08959948643089533</v>
+        <v>0.074686539425592</v>
       </c>
       <c r="K14">
-        <v>0.8699126682941483</v>
+        <v>1.480981804677896</v>
       </c>
       <c r="L14">
-        <v>0.3124732019441865</v>
+        <v>0.2754540206624227</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.74295341545978</v>
+        <v>2.884188153663814</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.783857206292907</v>
+        <v>1.796893095721799</v>
       </c>
       <c r="C15">
-        <v>0.4033591467682243</v>
+        <v>0.1164120818255228</v>
       </c>
       <c r="D15">
-        <v>0.0008920401151493174</v>
+        <v>0.1189494984462698</v>
       </c>
       <c r="E15">
-        <v>0.03076620225326288</v>
+        <v>0.07127434342106653</v>
       </c>
       <c r="F15">
-        <v>3.670199098689949</v>
+        <v>1.13128663997179</v>
       </c>
       <c r="G15">
-        <v>0.0008107955185673861</v>
+        <v>0.0008207177022674623</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08946080116960076</v>
+        <v>0.07471440830848053</v>
       </c>
       <c r="K15">
-        <v>0.8597616482168178</v>
+        <v>1.464583827679746</v>
       </c>
       <c r="L15">
-        <v>0.3093422988104635</v>
+        <v>0.2727751886250047</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.722542218868114</v>
+        <v>2.879379127955247</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.538298476195166</v>
+        <v>1.683105990770883</v>
       </c>
       <c r="C16">
-        <v>0.3765122963089595</v>
+        <v>0.1150004453346085</v>
       </c>
       <c r="D16">
-        <v>0.0007948434653064496</v>
+        <v>0.1121947955380165</v>
       </c>
       <c r="E16">
-        <v>0.03042629488588489</v>
+        <v>0.06925823822160027</v>
       </c>
       <c r="F16">
-        <v>3.516072814543918</v>
+        <v>1.113156953407398</v>
       </c>
       <c r="G16">
-        <v>0.0008165455615725712</v>
+        <v>0.0008235116456357106</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08870586123640933</v>
+        <v>0.07490807114914233</v>
       </c>
       <c r="K16">
-        <v>0.8020926152853605</v>
+        <v>1.370813092005307</v>
       </c>
       <c r="L16">
-        <v>0.2915819425182065</v>
+        <v>0.2574944533982944</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.607608922748256</v>
+        <v>2.853713053711061</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.389526000163983</v>
+        <v>1.613575839021024</v>
       </c>
       <c r="C17">
-        <v>0.360204917233574</v>
+        <v>0.1141410786649715</v>
       </c>
       <c r="D17">
-        <v>0.0007392627514799521</v>
+        <v>0.108071827454495</v>
       </c>
       <c r="E17">
-        <v>0.03022695989599455</v>
+        <v>0.06804376224620512</v>
       </c>
       <c r="F17">
-        <v>3.423771618261782</v>
+        <v>1.102619292201851</v>
       </c>
       <c r="G17">
-        <v>0.00082009453820997</v>
+        <v>0.0008252445935209071</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08827683559632504</v>
+        <v>0.07505655345840268</v>
       </c>
       <c r="K17">
-        <v>0.7671325597167566</v>
+        <v>1.313452132494632</v>
       </c>
       <c r="L17">
-        <v>0.2808391697608386</v>
+        <v>0.2481803454870288</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.538816005829631</v>
+        <v>2.839608047352158</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.304594320713534</v>
+        <v>1.573677936223362</v>
       </c>
       <c r="C18">
-        <v>0.350879538873329</v>
+        <v>0.1136491401324733</v>
       </c>
       <c r="D18">
-        <v>0.0007086308811938835</v>
+        <v>0.1057076818233753</v>
       </c>
       <c r="E18">
-        <v>0.030115568943339</v>
+        <v>0.06735319530449146</v>
       </c>
       <c r="F18">
-        <v>3.371459714425981</v>
+        <v>1.096766289446208</v>
       </c>
       <c r="G18">
-        <v>0.0008221444686615786</v>
+        <v>0.0008262484605106395</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08804206715091922</v>
+        <v>0.07515262121424016</v>
       </c>
       <c r="K18">
-        <v>0.7471666283548331</v>
+        <v>1.28051477515038</v>
       </c>
       <c r="L18">
-        <v>0.2747127375607619</v>
+        <v>0.2428441170943501</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.499840097103117</v>
+        <v>2.832079329392457</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.275943108456886</v>
+        <v>1.560184700025729</v>
       </c>
       <c r="C19">
-        <v>0.3477309404484288</v>
+        <v>0.1134829730514042</v>
       </c>
       <c r="D19">
-        <v>0.0006984756318431096</v>
+        <v>0.1049084377240916</v>
       </c>
       <c r="E19">
-        <v>0.03007840354878866</v>
+        <v>0.06712072722104168</v>
       </c>
       <c r="F19">
-        <v>3.353876792129512</v>
+        <v>1.094819659836546</v>
       </c>
       <c r="G19">
-        <v>0.0008228400939311011</v>
+        <v>0.0008265895901912067</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08796458994544665</v>
+        <v>0.0751869574435382</v>
       </c>
       <c r="K19">
-        <v>0.7404298846695951</v>
+        <v>1.269371739524928</v>
       </c>
       <c r="L19">
-        <v>0.2726471305275027</v>
+        <v>0.2410408672781301</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.486741716263168</v>
+        <v>2.829628827776247</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.405295954670578</v>
+        <v>1.620967561149911</v>
       </c>
       <c r="C20">
-        <v>0.3619351378945055</v>
+        <v>0.1142323149117246</v>
       </c>
       <c r="D20">
-        <v>0.0007450378340014829</v>
+        <v>0.1085099630288084</v>
       </c>
       <c r="E20">
-        <v>0.03024783940483289</v>
+        <v>0.06817221531784767</v>
       </c>
       <c r="F20">
-        <v>3.433515705433592</v>
+        <v>1.10371936953436</v>
       </c>
       <c r="G20">
-        <v>0.0008197158644490867</v>
+        <v>0.0008250593846902462</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08832125283558412</v>
+        <v>0.07503963816914805</v>
       </c>
       <c r="K20">
-        <v>0.7708391534426937</v>
+        <v>1.319552480830993</v>
       </c>
       <c r="L20">
-        <v>0.2819772421129159</v>
+        <v>0.2491696504804537</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.546077028046227</v>
+        <v>2.841048682724505</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.847875457811085</v>
+        <v>1.826361354444458</v>
       </c>
       <c r="C21">
-        <v>0.4103453160733181</v>
+        <v>0.1167786622561948</v>
       </c>
       <c r="D21">
-        <v>0.0009185162025739935</v>
+        <v>0.1207001826090988</v>
       </c>
       <c r="E21">
-        <v>0.03085689805369007</v>
+        <v>0.07180197112218423</v>
       </c>
       <c r="F21">
-        <v>3.710729582379685</v>
+        <v>1.136153671802219</v>
       </c>
       <c r="G21">
-        <v>0.0008093169839275046</v>
+        <v>0.0008200020908685768</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0896667146870378</v>
+        <v>0.0746737852075583</v>
       </c>
       <c r="K21">
-        <v>0.8747896872674374</v>
+        <v>1.488848804492193</v>
       </c>
       <c r="L21">
-        <v>0.3139779046610158</v>
+        <v>0.2767398826237866</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.752778613799876</v>
+        <v>2.886528386384981</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.143894743584781</v>
+        <v>1.961585514190801</v>
       </c>
       <c r="C22">
-        <v>0.442587925542</v>
+        <v>0.1184656897790077</v>
       </c>
       <c r="D22">
-        <v>0.001047193476048758</v>
+        <v>0.1287401792600207</v>
       </c>
       <c r="E22">
-        <v>0.03128654216404492</v>
+        <v>0.0742504428826507</v>
       </c>
       <c r="F22">
-        <v>3.899928203761306</v>
+        <v>1.159350477211945</v>
       </c>
       <c r="G22">
-        <v>0.0008025812174072833</v>
+        <v>0.0008167568901232162</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09066479020679807</v>
+        <v>0.07453490051532086</v>
       </c>
       <c r="K22">
-        <v>0.9442476497507499</v>
+        <v>1.600099360878602</v>
       </c>
       <c r="L22">
-        <v>0.3354389857704803</v>
+        <v>0.2949695257702132</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.893990389390311</v>
+        <v>2.921860761006656</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.985227979092656</v>
+        <v>1.889315877516282</v>
       </c>
       <c r="C23">
-        <v>0.4253178619027267</v>
+        <v>0.1175631019623253</v>
       </c>
       <c r="D23">
-        <v>0.000976934165415333</v>
+        <v>0.1244419906406904</v>
       </c>
       <c r="E23">
-        <v>0.03105421026601007</v>
+        <v>0.07293640821939462</v>
       </c>
       <c r="F23">
-        <v>3.798157897450125</v>
+        <v>1.146779561614494</v>
       </c>
       <c r="G23">
-        <v>0.0008061715455109747</v>
+        <v>0.0008184835916930327</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09012061494015455</v>
+        <v>0.07459959057257848</v>
       </c>
       <c r="K23">
-        <v>0.9070242747283004</v>
+        <v>1.540661632077615</v>
       </c>
       <c r="L23">
-        <v>0.3239306582908767</v>
+        <v>0.2852195171505088</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.818018811155653</v>
+        <v>2.902469427975149</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.398164502122654</v>
+        <v>1.617625528764023</v>
       </c>
       <c r="C24">
-        <v>0.3611527508294046</v>
+        <v>0.1141910604131056</v>
       </c>
       <c r="D24">
-        <v>0.0007424228360304319</v>
+        <v>0.1083118627013846</v>
       </c>
       <c r="E24">
-        <v>0.03023838980938365</v>
+        <v>0.06811411790856425</v>
       </c>
       <c r="F24">
-        <v>3.429108069010653</v>
+        <v>1.103221386889615</v>
       </c>
       <c r="G24">
-        <v>0.0008198870327845545</v>
+        <v>0.0008251430939354204</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08830113491199754</v>
+        <v>0.07504725228988463</v>
       </c>
       <c r="K24">
-        <v>0.7691629906318695</v>
+        <v>1.31679438930081</v>
       </c>
       <c r="L24">
-        <v>0.2814625655408207</v>
+        <v>0.2487223280902668</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.542792540861043</v>
+        <v>2.840395567943148</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.788844820888244</v>
+        <v>1.328081548587647</v>
       </c>
       <c r="C25">
-        <v>0.293959459547267</v>
+        <v>0.1106425357881733</v>
       </c>
       <c r="D25">
-        <v>0.0005392660708860575</v>
+        <v>0.0911869291246461</v>
       </c>
       <c r="E25">
-        <v>0.02948193967612678</v>
+        <v>0.06321442401986843</v>
       </c>
       <c r="F25">
-        <v>3.060256005762966</v>
+        <v>1.064114262048363</v>
       </c>
       <c r="G25">
-        <v>0.000835019694177004</v>
+        <v>0.0008326004584086104</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0867918186583907</v>
+        <v>0.07593520872114823</v>
       </c>
       <c r="K25">
-        <v>0.6257802039583069</v>
+        <v>1.077368241959107</v>
       </c>
       <c r="L25">
-        <v>0.237626870972619</v>
+        <v>0.2101449769998851</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.2681711278194</v>
+        <v>2.795565932881971</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.117137797940842</v>
+        <v>1.097552193779705</v>
       </c>
       <c r="C2">
-        <v>0.1080962782297163</v>
+        <v>0.1385104334972738</v>
       </c>
       <c r="D2">
-        <v>0.07877060985044437</v>
+        <v>0.1184726178642705</v>
       </c>
       <c r="E2">
-        <v>0.05983971464644</v>
+        <v>0.06314596097903369</v>
       </c>
       <c r="F2">
-        <v>1.041368541936954</v>
+        <v>0.6351112407364425</v>
       </c>
       <c r="G2">
-        <v>0.0008383447366267299</v>
+        <v>0.3851011833558999</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.008469448777522537</v>
       </c>
       <c r="J2">
-        <v>0.07691173340035107</v>
+        <v>0.3571565937159562</v>
       </c>
       <c r="K2">
-        <v>0.9022485264405873</v>
+        <v>0.3929936872266033</v>
       </c>
       <c r="L2">
-        <v>0.1822976067213702</v>
+        <v>0.06243113890571728</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9774021780381759</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2129846881408497</v>
       </c>
       <c r="O2">
-        <v>2.779590872700595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.510344072502861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9752275769339747</v>
+        <v>0.9560163886955593</v>
       </c>
       <c r="C3">
-        <v>0.1064078218033444</v>
+        <v>0.1320642401755734</v>
       </c>
       <c r="D3">
-        <v>0.07045660572344303</v>
+        <v>0.1072457648252509</v>
       </c>
       <c r="E3">
-        <v>0.05768567130687252</v>
+        <v>0.06085638929631187</v>
       </c>
       <c r="F3">
-        <v>1.029394506373542</v>
+        <v>0.6307989208591422</v>
       </c>
       <c r="G3">
-        <v>0.0008424040383495857</v>
+        <v>0.3862005233214632</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01083987802672182</v>
       </c>
       <c r="J3">
-        <v>0.07776308995095249</v>
+        <v>0.3626606727389685</v>
       </c>
       <c r="K3">
-        <v>0.7840286392443545</v>
+        <v>0.4015175978998471</v>
       </c>
       <c r="L3">
-        <v>0.1637166316257606</v>
+        <v>0.06312507891687602</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8544000444729249</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1914192501902505</v>
       </c>
       <c r="O3">
-        <v>2.778476755663434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.523892386066407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8885051207761308</v>
+        <v>0.8688925572778601</v>
       </c>
       <c r="C4">
-        <v>0.1053881788434339</v>
+        <v>0.1281480358703604</v>
       </c>
       <c r="D4">
-        <v>0.06539552553230976</v>
+        <v>0.1004274379747443</v>
       </c>
       <c r="E4">
-        <v>0.05642494786924601</v>
+        <v>0.0594927959285485</v>
       </c>
       <c r="F4">
-        <v>1.023637726198345</v>
+        <v>0.6288573943379134</v>
       </c>
       <c r="G4">
-        <v>0.0008449810669739938</v>
+        <v>0.3873915017297946</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01254063143561268</v>
       </c>
       <c r="J4">
-        <v>0.07837570612777967</v>
+        <v>0.3663835897416021</v>
       </c>
       <c r="K4">
-        <v>0.7115877460560824</v>
+        <v>0.4071361476022517</v>
       </c>
       <c r="L4">
-        <v>0.152434662104568</v>
+        <v>0.06358885552127624</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7788697219710912</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1783834568008373</v>
       </c>
       <c r="O4">
-        <v>2.782303230109022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.534015914229869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8532541322267093</v>
+        <v>0.833023764107395</v>
       </c>
       <c r="C5">
-        <v>0.1049767970734976</v>
+        <v>0.1267343489333328</v>
       </c>
       <c r="D5">
-        <v>0.0633433067146143</v>
+        <v>0.09769696589751931</v>
       </c>
       <c r="E5">
-        <v>0.05592623299261668</v>
+        <v>0.05892271626609258</v>
       </c>
       <c r="F5">
-        <v>1.021678673538197</v>
+        <v>0.6278248142755558</v>
       </c>
       <c r="G5">
-        <v>0.0008460528531013588</v>
+        <v>0.3876669250933205</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01337962647153024</v>
       </c>
       <c r="J5">
-        <v>0.07864744253734557</v>
+        <v>0.3678090217206957</v>
       </c>
       <c r="K5">
-        <v>0.6820936206371471</v>
+        <v>0.4092276497241798</v>
       </c>
       <c r="L5">
-        <v>0.147866765736282</v>
+        <v>0.06375269009912543</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7484049301427689</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1732845847519968</v>
       </c>
       <c r="O5">
-        <v>2.784957423446713</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.537502037384499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8474057140222442</v>
+        <v>0.8266895423581104</v>
       </c>
       <c r="C6">
-        <v>0.1049087324431426</v>
+        <v>0.1267129879770295</v>
       </c>
       <c r="D6">
-        <v>0.06300313188163642</v>
+        <v>0.09728140609622216</v>
       </c>
       <c r="E6">
-        <v>0.05584431550624558</v>
+        <v>0.05879835625125729</v>
       </c>
       <c r="F6">
-        <v>1.021376336520362</v>
+        <v>0.6271574578789298</v>
       </c>
       <c r="G6">
-        <v>0.0008462321385348526</v>
+        <v>0.3873101682190523</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01363523754729279</v>
       </c>
       <c r="J6">
-        <v>0.07869388388439269</v>
+        <v>0.3678353215536703</v>
       </c>
       <c r="K6">
-        <v>0.6771974196408337</v>
+        <v>0.4092231632679173</v>
       </c>
       <c r="L6">
-        <v>0.147109992921223</v>
+        <v>0.06373827430918766</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7437398173918837</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1726419744410492</v>
       </c>
       <c r="O6">
-        <v>2.785463163489766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.536786649322536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8880293710216449</v>
+        <v>0.8673821011050222</v>
       </c>
       <c r="C7">
-        <v>0.1053826142844656</v>
+        <v>0.1287125244154907</v>
       </c>
       <c r="D7">
-        <v>0.06536780825452837</v>
+        <v>0.1004909289306752</v>
       </c>
       <c r="E7">
-        <v>0.05641816179417702</v>
+        <v>0.05940223159196023</v>
       </c>
       <c r="F7">
-        <v>1.023609757624918</v>
+        <v>0.6274623932727295</v>
       </c>
       <c r="G7">
-        <v>0.0008449954334046981</v>
+        <v>0.3862769720778729</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01284272075784187</v>
       </c>
       <c r="J7">
-        <v>0.0783792820739464</v>
+        <v>0.365815988806574</v>
       </c>
       <c r="K7">
-        <v>0.7111898859204757</v>
+        <v>0.4061906257739096</v>
       </c>
       <c r="L7">
-        <v>0.152372940959367</v>
+        <v>0.06347611657909091</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7795385943588258</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1788641404322391</v>
       </c>
       <c r="O7">
-        <v>2.782334642981169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.530462711324873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.06811299787779</v>
+        <v>1.047418401429468</v>
       </c>
       <c r="C8">
-        <v>0.1075104514701763</v>
+        <v>0.1370650966180165</v>
       </c>
       <c r="D8">
-        <v>0.07589436984453357</v>
+        <v>0.1147182625981031</v>
       </c>
       <c r="E8">
-        <v>0.05908384021999602</v>
+        <v>0.06223788901363037</v>
       </c>
       <c r="F8">
-        <v>1.036899973080899</v>
+        <v>0.6316587125689921</v>
       </c>
       <c r="G8">
-        <v>0.0008397270421372505</v>
+        <v>0.3839020184808888</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.009583233604387509</v>
       </c>
       <c r="J8">
-        <v>0.07718631172682677</v>
+        <v>0.3582151994506901</v>
       </c>
       <c r="K8">
-        <v>0.8614491940158189</v>
+        <v>0.3945791910538965</v>
       </c>
       <c r="L8">
-        <v>0.1758631407475519</v>
+        <v>0.06251205793808801</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9364316709997809</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2062339396667596</v>
       </c>
       <c r="O8">
-        <v>2.77824628106012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.509913355991756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.425216458103051</v>
+        <v>1.40079010576045</v>
       </c>
       <c r="C9">
-        <v>0.1118269144463255</v>
+        <v>0.1527639583199161</v>
       </c>
       <c r="D9">
-        <v>0.09692282090163928</v>
+        <v>0.1430745835409226</v>
       </c>
       <c r="E9">
-        <v>0.06482700239136818</v>
+        <v>0.06829364711803976</v>
       </c>
       <c r="F9">
-        <v>1.076301555029325</v>
+        <v>0.6481778983302746</v>
       </c>
       <c r="G9">
-        <v>0.0008300502043854957</v>
+        <v>0.3855173576196336</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004793734302958264</v>
       </c>
       <c r="J9">
-        <v>0.07558432540544047</v>
+        <v>0.3471494429819302</v>
       </c>
       <c r="K9">
-        <v>1.157800019952759</v>
+        <v>0.3766737925015349</v>
       </c>
       <c r="L9">
-        <v>0.2230454610642028</v>
+        <v>0.0611279399300777</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.242376311239553</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2606714230903862</v>
       </c>
       <c r="O9">
-        <v>2.807893421731251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.490890737075446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.691053096043873</v>
+        <v>1.659266347295869</v>
       </c>
       <c r="C10">
-        <v>0.1150988293437081</v>
+        <v>0.1649297490140071</v>
       </c>
       <c r="D10">
-        <v>0.1126662678156265</v>
+        <v>0.164406748501861</v>
       </c>
       <c r="E10">
-        <v>0.06939791535560147</v>
+        <v>0.07293039363792531</v>
       </c>
       <c r="F10">
-        <v>1.114388039701396</v>
+        <v>0.6635471360348859</v>
       </c>
       <c r="G10">
-        <v>0.0008233148580203937</v>
+        <v>0.389067014800041</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.00279959685475184</v>
       </c>
       <c r="J10">
-        <v>0.07489259067087772</v>
+        <v>0.3405701265411878</v>
       </c>
       <c r="K10">
-        <v>1.377366225192446</v>
+        <v>0.3651182435724785</v>
       </c>
       <c r="L10">
-        <v>0.2585601820559731</v>
+        <v>0.06024782553309294</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.468294019183872</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3021906518570319</v>
       </c>
       <c r="O10">
-        <v>2.855403020725561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.485133082674452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.812997008712102</v>
+        <v>1.775038617410814</v>
       </c>
       <c r="C11">
-        <v>0.116612362954946</v>
+        <v>0.1715922010594397</v>
       </c>
       <c r="D11">
-        <v>0.1199061520529483</v>
+        <v>0.1743868259637509</v>
       </c>
       <c r="E11">
-        <v>0.07156241089370141</v>
+        <v>0.07495745861227832</v>
       </c>
       <c r="F11">
-        <v>1.133937837655054</v>
+        <v>0.6692649003547544</v>
       </c>
       <c r="G11">
-        <v>0.0008203262429519779</v>
+        <v>0.3896090686915485</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002650680281860218</v>
       </c>
       <c r="J11">
-        <v>0.07469173561612052</v>
+        <v>0.3370897800438755</v>
       </c>
       <c r="K11">
-        <v>1.477845198804772</v>
+        <v>0.3588348941872432</v>
       </c>
       <c r="L11">
-        <v>0.2749414647771999</v>
+        <v>0.05971103012809564</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.573134932293584</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3223023091613584</v>
       </c>
       <c r="O11">
-        <v>2.88326105871667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.479210975200843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.859341998262892</v>
+        <v>1.81980848321723</v>
       </c>
       <c r="C12">
-        <v>0.1171893986781427</v>
+        <v>0.1735836393830539</v>
       </c>
       <c r="D12">
-        <v>0.1226601557128362</v>
+        <v>0.1780962762006197</v>
       </c>
       <c r="E12">
-        <v>0.0723950671953375</v>
+        <v>0.07580544521357524</v>
       </c>
       <c r="F12">
-        <v>1.14168201380501</v>
+        <v>0.6727452662737861</v>
       </c>
       <c r="G12">
-        <v>0.0008192048615271503</v>
+        <v>0.3908659414802003</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002420457450459601</v>
       </c>
       <c r="J12">
-        <v>0.07463280331600686</v>
+        <v>0.33632396272845</v>
       </c>
       <c r="K12">
-        <v>1.515996833279331</v>
+        <v>0.357334893529643</v>
       </c>
       <c r="L12">
-        <v>0.2811805778698755</v>
+        <v>0.05961017687885217</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.611909135842097</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3294835550408806</v>
       </c>
       <c r="O12">
-        <v>2.894767329034636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.480352949215742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.849352963653899</v>
+        <v>1.810354405132898</v>
       </c>
       <c r="C13">
-        <v>0.1170649458111086</v>
+        <v>0.1730430258349145</v>
       </c>
       <c r="D13">
-        <v>0.1220664597740466</v>
+        <v>0.1772790702916183</v>
       </c>
       <c r="E13">
-        <v>0.0722151485060607</v>
+        <v>0.07563700260989847</v>
       </c>
       <c r="F13">
-        <v>1.139998641989052</v>
+        <v>0.6722250197929895</v>
       </c>
       <c r="G13">
-        <v>0.0008194459192937197</v>
+        <v>0.390779896098195</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002420105780644555</v>
       </c>
       <c r="J13">
-        <v>0.07464472104043196</v>
+        <v>0.3365837862350674</v>
       </c>
       <c r="K13">
-        <v>1.507775363743775</v>
+        <v>0.3578160491865994</v>
       </c>
       <c r="L13">
-        <v>0.279835219915455</v>
+        <v>0.05965084006949795</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.603360676108537</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.327837323357457</v>
       </c>
       <c r="O13">
-        <v>2.89224570033025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.480697225194916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.816806352189786</v>
+        <v>1.778801615047627</v>
       </c>
       <c r="C14">
-        <v>0.1166597563040739</v>
+        <v>0.1717085901351965</v>
       </c>
       <c r="D14">
-        <v>0.1201324696660606</v>
+        <v>0.174684205939414</v>
       </c>
       <c r="E14">
-        <v>0.07163064876418446</v>
+        <v>0.07503323965138264</v>
       </c>
       <c r="F14">
-        <v>1.134567992516878</v>
+        <v>0.6696485298364507</v>
       </c>
       <c r="G14">
-        <v>0.0008202337818617754</v>
+        <v>0.3897908309009424</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002610128469322959</v>
       </c>
       <c r="J14">
-        <v>0.074686539425592</v>
+        <v>0.3370670511484093</v>
       </c>
       <c r="K14">
-        <v>1.480981804677896</v>
+        <v>0.3587786217114974</v>
       </c>
       <c r="L14">
-        <v>0.2754540206624227</v>
+        <v>0.05971077728557361</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.576240906889041</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.3228507420089812</v>
       </c>
       <c r="O14">
-        <v>2.884188153663814</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.479555415595087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.796893095721799</v>
+        <v>1.759105310661596</v>
       </c>
       <c r="C15">
-        <v>0.1164120818255228</v>
+        <v>0.1711117859645981</v>
       </c>
       <c r="D15">
-        <v>0.1189494984462698</v>
+        <v>0.1731315875330495</v>
       </c>
       <c r="E15">
-        <v>0.07127434342106653</v>
+        <v>0.07463583813023078</v>
       </c>
       <c r="F15">
-        <v>1.13128663997179</v>
+        <v>0.667624556053461</v>
       </c>
       <c r="G15">
-        <v>0.0008207177022674623</v>
+        <v>0.3888257344455113</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002831592295570395</v>
       </c>
       <c r="J15">
-        <v>0.07471440830848053</v>
+        <v>0.3371786583133414</v>
       </c>
       <c r="K15">
-        <v>1.464583827679746</v>
+        <v>0.3590596903966841</v>
       </c>
       <c r="L15">
-        <v>0.2727751886250047</v>
+        <v>0.05971043603339155</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.560020123247682</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.3199945868492193</v>
       </c>
       <c r="O15">
-        <v>2.879379127955247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.477708035289439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.683105990770883</v>
+        <v>1.648595859055519</v>
       </c>
       <c r="C16">
-        <v>0.1150004453346085</v>
+        <v>0.1663216110295025</v>
       </c>
       <c r="D16">
-        <v>0.1121947955380165</v>
+        <v>0.1640478043612745</v>
       </c>
       <c r="E16">
-        <v>0.06925823822160027</v>
+        <v>0.07255767160006243</v>
       </c>
       <c r="F16">
-        <v>1.113156953407398</v>
+        <v>0.6592702336782565</v>
       </c>
       <c r="G16">
-        <v>0.0008235116456357106</v>
+        <v>0.3858896270353611</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.003597209529018208</v>
       </c>
       <c r="J16">
-        <v>0.07490807114914233</v>
+        <v>0.3391747677434367</v>
       </c>
       <c r="K16">
-        <v>1.370813092005307</v>
+        <v>0.362843450441062</v>
       </c>
       <c r="L16">
-        <v>0.2574944533982944</v>
+        <v>0.05996304363435456</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.464684548039003</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.3024970290705511</v>
       </c>
       <c r="O16">
-        <v>2.853713053711061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.475460285420169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.613575839021024</v>
+        <v>1.580809081641064</v>
       </c>
       <c r="C17">
-        <v>0.1141410786649715</v>
+        <v>0.1633986610353446</v>
       </c>
       <c r="D17">
-        <v>0.108071827454495</v>
+        <v>0.1585035261745418</v>
       </c>
       <c r="E17">
-        <v>0.06804376224620512</v>
+        <v>0.07129789592249836</v>
       </c>
       <c r="F17">
-        <v>1.102619292201851</v>
+        <v>0.6544041288039821</v>
       </c>
       <c r="G17">
-        <v>0.0008252445935209071</v>
+        <v>0.3842843066402892</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.004161865326618219</v>
       </c>
       <c r="J17">
-        <v>0.07505655345840268</v>
+        <v>0.340516304047263</v>
       </c>
       <c r="K17">
-        <v>1.313452132494632</v>
+        <v>0.3653005478109677</v>
       </c>
       <c r="L17">
-        <v>0.2481803454870288</v>
+        <v>0.06013047423931184</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.406250895111697</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2918386231828549</v>
       </c>
       <c r="O17">
-        <v>2.839608047352158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.47473954159814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.573677936223362</v>
+        <v>1.542756222107329</v>
       </c>
       <c r="C18">
-        <v>0.1136491401324733</v>
+        <v>0.1611678776097918</v>
       </c>
       <c r="D18">
-        <v>0.1057076818233753</v>
+        <v>0.1552364327935578</v>
       </c>
       <c r="E18">
-        <v>0.06735319530449146</v>
+        <v>0.07065174494393389</v>
       </c>
       <c r="F18">
-        <v>1.096766289446208</v>
+        <v>0.6528859354016348</v>
       </c>
       <c r="G18">
-        <v>0.0008262484605106395</v>
+        <v>0.3843864403760406</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.004244384181346206</v>
       </c>
       <c r="J18">
-        <v>0.07515262121424016</v>
+        <v>0.3418248937583783</v>
       </c>
       <c r="K18">
-        <v>1.28051477515038</v>
+        <v>0.36757845531017</v>
       </c>
       <c r="L18">
-        <v>0.2428441170943501</v>
+        <v>0.06032837564896276</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.371679152029202</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2852457016009851</v>
       </c>
       <c r="O18">
-        <v>2.832079329392457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.477622850738825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.560184700025729</v>
+        <v>1.529150074524637</v>
       </c>
       <c r="C19">
-        <v>0.1134829730514042</v>
+        <v>0.1608411185398637</v>
       </c>
       <c r="D19">
-        <v>0.1049084377240916</v>
+        <v>0.1541999817949318</v>
       </c>
       <c r="E19">
-        <v>0.06712072722104168</v>
+        <v>0.07037757640842202</v>
       </c>
       <c r="F19">
-        <v>1.094819659836546</v>
+        <v>0.6514713183805227</v>
       </c>
       <c r="G19">
-        <v>0.0008265895901912067</v>
+        <v>0.3836957520619109</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.004487596366481661</v>
       </c>
       <c r="J19">
-        <v>0.0751869574435382</v>
+        <v>0.3418934418853397</v>
       </c>
       <c r="K19">
-        <v>1.269371739524928</v>
+        <v>0.3677286433575588</v>
       </c>
       <c r="L19">
-        <v>0.2410408672781301</v>
+        <v>0.06032125922746445</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.360731243445855</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2833952920942266</v>
       </c>
       <c r="O19">
-        <v>2.829628827776247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.476276989800795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.620967561149911</v>
+        <v>1.588098551282684</v>
       </c>
       <c r="C20">
-        <v>0.1142323149117246</v>
+        <v>0.1636655536255489</v>
       </c>
       <c r="D20">
-        <v>0.1085099630288084</v>
+        <v>0.1590857525169014</v>
       </c>
       <c r="E20">
-        <v>0.06817221531784767</v>
+        <v>0.07143716629183317</v>
       </c>
       <c r="F20">
-        <v>1.10371936953436</v>
+        <v>0.6550056092019503</v>
       </c>
       <c r="G20">
-        <v>0.0008250593846902462</v>
+        <v>0.384522794879139</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.00407637500492708</v>
       </c>
       <c r="J20">
-        <v>0.07503963816914805</v>
+        <v>0.3404078766549929</v>
       </c>
       <c r="K20">
-        <v>1.319552480830993</v>
+        <v>0.3650977773046726</v>
       </c>
       <c r="L20">
-        <v>0.2491696504804537</v>
+        <v>0.06011978638302296</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.412392599777121</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2929320100663517</v>
       </c>
       <c r="O20">
-        <v>2.841048682724505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.475031664948858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.826361354444458</v>
+        <v>1.787015750439963</v>
       </c>
       <c r="C21">
-        <v>0.1167786622561948</v>
+        <v>0.1727243712663693</v>
       </c>
       <c r="D21">
-        <v>0.1207001826090988</v>
+        <v>0.1755442125174369</v>
       </c>
       <c r="E21">
-        <v>0.07180197112218423</v>
+        <v>0.07512875814007458</v>
       </c>
       <c r="F21">
-        <v>1.136153671802219</v>
+        <v>0.669079945812868</v>
       </c>
       <c r="G21">
-        <v>0.0008200020908685768</v>
+        <v>0.3890162739079628</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00283231510898041</v>
       </c>
       <c r="J21">
-        <v>0.0746737852075583</v>
+        <v>0.3363751316060117</v>
       </c>
       <c r="K21">
-        <v>1.488848804492193</v>
+        <v>0.3575896906576794</v>
       </c>
       <c r="L21">
-        <v>0.2767398826237866</v>
+        <v>0.05958523411150551</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.58530316885367</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3248606570104329</v>
       </c>
       <c r="O21">
-        <v>2.886528386384981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.476481107595816</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.961585514190801</v>
+        <v>1.918408242417115</v>
       </c>
       <c r="C22">
-        <v>0.1184656897790077</v>
+        <v>0.1779080986686239</v>
       </c>
       <c r="D22">
-        <v>0.1287401792600207</v>
+        <v>0.1862731918366904</v>
       </c>
       <c r="E22">
-        <v>0.0742504428826507</v>
+        <v>0.07769601372022805</v>
       </c>
       <c r="F22">
-        <v>1.159350477211945</v>
+        <v>0.6808341256053438</v>
       </c>
       <c r="G22">
-        <v>0.0008167568901232162</v>
+        <v>0.393967911975416</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001981137229218</v>
       </c>
       <c r="J22">
-        <v>0.07453490051532086</v>
+        <v>0.3348292026337703</v>
       </c>
       <c r="K22">
-        <v>1.600099360878602</v>
+        <v>0.3542882084020142</v>
       </c>
       <c r="L22">
-        <v>0.2949695257702132</v>
+        <v>0.05941417990559827</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.697117723077014</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3452949374767513</v>
       </c>
       <c r="O22">
-        <v>2.921860761006656</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.483975239100474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.889315877516282</v>
+        <v>1.84954635841234</v>
       </c>
       <c r="C23">
-        <v>0.1175631019623253</v>
+        <v>0.1743846124959987</v>
       </c>
       <c r="D23">
-        <v>0.1244419906406904</v>
+        <v>0.1804192195337606</v>
       </c>
       <c r="E23">
-        <v>0.07293640821939462</v>
+        <v>0.07641941391478113</v>
       </c>
       <c r="F23">
-        <v>1.146779561614494</v>
+        <v>0.6760705722753144</v>
       </c>
       <c r="G23">
-        <v>0.0008184835916930327</v>
+        <v>0.3925423786024638</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002086296486850436</v>
       </c>
       <c r="J23">
-        <v>0.07459959057257848</v>
+        <v>0.3362778302549501</v>
       </c>
       <c r="K23">
-        <v>1.540661632077615</v>
+        <v>0.3570974385211123</v>
       </c>
       <c r="L23">
-        <v>0.2852195171505088</v>
+        <v>0.0596315382130328</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.636095443461556</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3337052468525883</v>
       </c>
       <c r="O23">
-        <v>2.902469427975149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.483862477349248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.617625528764023</v>
+        <v>1.586786949317144</v>
       </c>
       <c r="C24">
-        <v>0.1141910604131056</v>
+        <v>0.1623736770797493</v>
       </c>
       <c r="D24">
-        <v>0.1083118627013846</v>
+        <v>0.1586359089209708</v>
       </c>
       <c r="E24">
-        <v>0.06811411790856425</v>
+        <v>0.07152877134954849</v>
       </c>
       <c r="F24">
-        <v>1.103221386889615</v>
+        <v>0.6572479346092663</v>
       </c>
       <c r="G24">
-        <v>0.0008251430939354204</v>
+        <v>0.3864379699517713</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003571876193090517</v>
       </c>
       <c r="J24">
-        <v>0.07504725228988463</v>
+        <v>0.3415037341559</v>
       </c>
       <c r="K24">
-        <v>1.31679438930081</v>
+        <v>0.3669171560708655</v>
       </c>
       <c r="L24">
-        <v>0.2487223280902668</v>
+        <v>0.06033019828341146</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.407543786997053</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2914027336455689</v>
       </c>
       <c r="O24">
-        <v>2.840395567943148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.481380829117526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.328081548587647</v>
+        <v>1.303420237952139</v>
       </c>
       <c r="C25">
-        <v>0.1106425357881733</v>
+        <v>0.1495745226432774</v>
       </c>
       <c r="D25">
-        <v>0.0911869291246461</v>
+        <v>0.1355105282414968</v>
       </c>
       <c r="E25">
-        <v>0.06321442401986843</v>
+        <v>0.06646646133244261</v>
       </c>
       <c r="F25">
-        <v>1.064114262048363</v>
+        <v>0.6405885389780366</v>
       </c>
       <c r="G25">
-        <v>0.0008326004584086104</v>
+        <v>0.3826070987657673</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.006337620797975063</v>
       </c>
       <c r="J25">
-        <v>0.07593520872114823</v>
+        <v>0.3487995311243353</v>
       </c>
       <c r="K25">
-        <v>1.077368241959107</v>
+        <v>0.3794593419819101</v>
       </c>
       <c r="L25">
-        <v>0.2101449769998851</v>
+        <v>0.0612667403213365</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.161535935727528</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2467400489963012</v>
       </c>
       <c r="O25">
-        <v>2.795565932881971</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.487986353539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.097552193779705</v>
+        <v>1.087636296841538</v>
       </c>
       <c r="C2">
-        <v>0.1385104334972738</v>
+        <v>0.1294103395114163</v>
       </c>
       <c r="D2">
-        <v>0.1184726178642705</v>
+        <v>0.1201618722282234</v>
       </c>
       <c r="E2">
-        <v>0.06314596097903369</v>
+        <v>0.0604146123761744</v>
       </c>
       <c r="F2">
-        <v>0.6351112407364425</v>
+        <v>0.5966582311059128</v>
       </c>
       <c r="G2">
-        <v>0.3851011833558999</v>
+        <v>0.3424450759976168</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.008469448777522537</v>
+        <v>0.006186825518354588</v>
       </c>
       <c r="J2">
-        <v>0.3571565937159562</v>
+        <v>0.3566007717192576</v>
       </c>
       <c r="K2">
-        <v>0.3929936872266033</v>
+        <v>0.3557707522303808</v>
       </c>
       <c r="L2">
-        <v>0.06243113890571728</v>
+        <v>0.1611371159938457</v>
       </c>
       <c r="M2">
-        <v>0.9774021780381759</v>
+        <v>0.1089546714399212</v>
       </c>
       <c r="N2">
-        <v>0.2129846881408497</v>
+        <v>0.0571339885579274</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.996715391631966</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.224196074590111</v>
       </c>
       <c r="Q2">
-        <v>1.510344072502861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.403183447203389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9560163886955593</v>
+        <v>0.9491787118237482</v>
       </c>
       <c r="C3">
-        <v>0.1320642401755734</v>
+        <v>0.1200795980042528</v>
       </c>
       <c r="D3">
-        <v>0.1072457648252509</v>
+        <v>0.1086420622710165</v>
       </c>
       <c r="E3">
-        <v>0.06085638929631187</v>
+        <v>0.05827483354075369</v>
       </c>
       <c r="F3">
-        <v>0.6307989208591422</v>
+        <v>0.5942816655536731</v>
       </c>
       <c r="G3">
-        <v>0.3862005233214632</v>
+        <v>0.3465522007944415</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01083987802672182</v>
+        <v>0.00795699469299338</v>
       </c>
       <c r="J3">
-        <v>0.3626606727389685</v>
+        <v>0.3595919987075362</v>
       </c>
       <c r="K3">
-        <v>0.4015175978998471</v>
+        <v>0.3647655470400046</v>
       </c>
       <c r="L3">
-        <v>0.06312507891687602</v>
+        <v>0.1668825421585201</v>
       </c>
       <c r="M3">
-        <v>0.8544000444729249</v>
+        <v>0.1114960623156342</v>
       </c>
       <c r="N3">
-        <v>0.1914192501902505</v>
+        <v>0.05788966693266673</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8700709774532811</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.201119372512423</v>
       </c>
       <c r="Q3">
-        <v>1.523892386066407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.42060056518747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8688925572778601</v>
+        <v>0.8638323248217148</v>
       </c>
       <c r="C4">
-        <v>0.1281480358703604</v>
+        <v>0.1144505355665686</v>
       </c>
       <c r="D4">
-        <v>0.1004274379747443</v>
+        <v>0.1016488002755764</v>
       </c>
       <c r="E4">
-        <v>0.0594927959285485</v>
+        <v>0.05699557851220227</v>
       </c>
       <c r="F4">
-        <v>0.6288573943379134</v>
+        <v>0.5933982769183928</v>
       </c>
       <c r="G4">
-        <v>0.3873915017297946</v>
+        <v>0.349597782772463</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01254063143561268</v>
+        <v>0.009248267948071209</v>
       </c>
       <c r="J4">
-        <v>0.3663835897416021</v>
+        <v>0.3615804565497029</v>
       </c>
       <c r="K4">
-        <v>0.4071361476022517</v>
+        <v>0.370582708050728</v>
       </c>
       <c r="L4">
-        <v>0.06358885552127624</v>
+        <v>0.1705691518730283</v>
       </c>
       <c r="M4">
-        <v>0.7788697219710912</v>
+        <v>0.1136288457577797</v>
       </c>
       <c r="N4">
-        <v>0.1783834568008373</v>
+        <v>0.05838139612242088</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7923409026485047</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1871959633491471</v>
       </c>
       <c r="Q4">
-        <v>1.534015914229869</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.432753213168297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.833023764107395</v>
+        <v>0.8286636959240923</v>
       </c>
       <c r="C5">
-        <v>0.1267343489333328</v>
+        <v>0.1123728831455182</v>
       </c>
       <c r="D5">
-        <v>0.09769696589751931</v>
+        <v>0.09884826048052986</v>
       </c>
       <c r="E5">
-        <v>0.05892271626609258</v>
+        <v>0.05645862519286027</v>
       </c>
       <c r="F5">
-        <v>0.6278248142755558</v>
+        <v>0.5927792977609485</v>
       </c>
       <c r="G5">
-        <v>0.3876669250933205</v>
+        <v>0.3506507027056642</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01337962647153024</v>
+        <v>0.0099219073431982</v>
       </c>
       <c r="J5">
-        <v>0.3678090217206957</v>
+        <v>0.3622513817420838</v>
       </c>
       <c r="K5">
-        <v>0.4092276497241798</v>
+        <v>0.3727526908568404</v>
       </c>
       <c r="L5">
-        <v>0.06375269009912543</v>
+        <v>0.1719654238849486</v>
       </c>
       <c r="M5">
-        <v>0.7484049301427689</v>
+        <v>0.1145815783734774</v>
       </c>
       <c r="N5">
-        <v>0.1732845847519968</v>
+        <v>0.05855630501539721</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7609890424803325</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1817465156697935</v>
       </c>
       <c r="Q5">
-        <v>1.537502037384499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.437028321851059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8266895423581104</v>
+        <v>0.8224479073605835</v>
       </c>
       <c r="C6">
-        <v>0.1267129879770295</v>
+        <v>0.1122664743609079</v>
       </c>
       <c r="D6">
-        <v>0.09728140609622216</v>
+        <v>0.09842105312364424</v>
       </c>
       <c r="E6">
-        <v>0.05879835625125729</v>
+        <v>0.05634043842207426</v>
       </c>
       <c r="F6">
-        <v>0.6271574578789298</v>
+        <v>0.5921966153815248</v>
       </c>
       <c r="G6">
-        <v>0.3873101682190523</v>
+        <v>0.3504480855592575</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01363523754729279</v>
+        <v>0.01016497164370556</v>
       </c>
       <c r="J6">
-        <v>0.3678353215536703</v>
+        <v>0.3621488907561741</v>
       </c>
       <c r="K6">
-        <v>0.4092231632679173</v>
+        <v>0.3727844949374983</v>
       </c>
       <c r="L6">
-        <v>0.06373827430918766</v>
+        <v>0.1720223171854194</v>
       </c>
       <c r="M6">
-        <v>0.7437398173918837</v>
+        <v>0.1146753609225231</v>
       </c>
       <c r="N6">
-        <v>0.1726419744410492</v>
+        <v>0.05854624174334155</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7561764539981937</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1810475515812087</v>
       </c>
       <c r="Q6">
-        <v>1.536786649322536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.436497378025166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8673821011050222</v>
+        <v>0.8624724053053683</v>
       </c>
       <c r="C7">
-        <v>0.1287125244154907</v>
+        <v>0.114957401623677</v>
       </c>
       <c r="D7">
-        <v>0.1004909289306752</v>
+        <v>0.1018721131440543</v>
       </c>
       <c r="E7">
-        <v>0.05940223159196023</v>
+        <v>0.05693271538500255</v>
       </c>
       <c r="F7">
-        <v>0.6274623932727295</v>
+        <v>0.5913408600223562</v>
       </c>
       <c r="G7">
-        <v>0.3862769720778729</v>
+        <v>0.3505046434835819</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01284272075784187</v>
+        <v>0.009595490568949039</v>
       </c>
       <c r="J7">
-        <v>0.365815988806574</v>
+        <v>0.3579509799389911</v>
       </c>
       <c r="K7">
-        <v>0.4061906257739096</v>
+        <v>0.3693626677588799</v>
       </c>
       <c r="L7">
-        <v>0.06347611657909091</v>
+        <v>0.1699403395181953</v>
       </c>
       <c r="M7">
-        <v>0.7795385943588258</v>
+        <v>0.1133487252844008</v>
       </c>
       <c r="N7">
-        <v>0.1788641404322391</v>
+        <v>0.05826463446872054</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7928059662550311</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1876748135634045</v>
       </c>
       <c r="Q7">
-        <v>1.530462711324873</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.427387252710787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.047418401429468</v>
+        <v>1.03903797386215</v>
       </c>
       <c r="C8">
-        <v>0.1370650966180165</v>
+        <v>0.1266669284435977</v>
       </c>
       <c r="D8">
-        <v>0.1147182625981031</v>
+        <v>0.1168442861494583</v>
       </c>
       <c r="E8">
-        <v>0.06223788901363037</v>
+        <v>0.05964686324952062</v>
       </c>
       <c r="F8">
-        <v>0.6316587125689921</v>
+        <v>0.5916105841074426</v>
       </c>
       <c r="G8">
-        <v>0.3839020184808888</v>
+        <v>0.348872534426711</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.009583233604387509</v>
+        <v>0.007171962015737776</v>
       </c>
       <c r="J8">
-        <v>0.3582151994506901</v>
+        <v>0.3470107481655091</v>
       </c>
       <c r="K8">
-        <v>0.3945791910538965</v>
+        <v>0.3565265768498378</v>
       </c>
       <c r="L8">
-        <v>0.06251205793808801</v>
+        <v>0.1620136985175513</v>
       </c>
       <c r="M8">
-        <v>0.9364316709997809</v>
+        <v>0.1090635649298264</v>
       </c>
       <c r="N8">
-        <v>0.2062339396667596</v>
+        <v>0.05721247181400457</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9538446714393558</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.216916313586907</v>
       </c>
       <c r="Q8">
-        <v>1.509913355991756</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.397893004350777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.40079010576045</v>
+        <v>1.384158561913551</v>
       </c>
       <c r="C9">
-        <v>0.1527639583199161</v>
+        <v>0.1497055284953177</v>
       </c>
       <c r="D9">
-        <v>0.1430745835409226</v>
+        <v>0.1461116797131865</v>
       </c>
       <c r="E9">
-        <v>0.06829364711803976</v>
+        <v>0.06530623021985704</v>
       </c>
       <c r="F9">
-        <v>0.6481778983302746</v>
+        <v>0.6018658762534201</v>
       </c>
       <c r="G9">
-        <v>0.3855173576196336</v>
+        <v>0.3447413449050529</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.004793734302958264</v>
+        <v>0.003586026781121632</v>
       </c>
       <c r="J9">
-        <v>0.3471494429819302</v>
+        <v>0.33851237497894</v>
       </c>
       <c r="K9">
-        <v>0.3766737925015349</v>
+        <v>0.3365893315777129</v>
       </c>
       <c r="L9">
-        <v>0.0611279399300777</v>
+        <v>0.1491110553098878</v>
       </c>
       <c r="M9">
-        <v>1.242376311239553</v>
+        <v>0.1059956787393777</v>
       </c>
       <c r="N9">
-        <v>0.2606714230903862</v>
+        <v>0.05560212556130395</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.268859167655393</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2753366533401476</v>
       </c>
       <c r="Q9">
-        <v>1.490890737075446</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.365362822009047</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.659266347295869</v>
+        <v>1.63669350495212</v>
       </c>
       <c r="C10">
-        <v>0.1649297490140071</v>
+        <v>0.1669062832049946</v>
       </c>
       <c r="D10">
-        <v>0.164406748501861</v>
+        <v>0.1691041027580411</v>
       </c>
       <c r="E10">
-        <v>0.07293039363792531</v>
+        <v>0.06976354101250948</v>
       </c>
       <c r="F10">
-        <v>0.6635471360348859</v>
+        <v>0.607879326669952</v>
       </c>
       <c r="G10">
-        <v>0.389067014800041</v>
+        <v>0.3559478280600814</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.00279959685475184</v>
+        <v>0.002275470164333271</v>
       </c>
       <c r="J10">
-        <v>0.3405701265411878</v>
+        <v>0.3170657657530143</v>
       </c>
       <c r="K10">
-        <v>0.3651182435724785</v>
+        <v>0.321276928753857</v>
       </c>
       <c r="L10">
-        <v>0.06024782553309294</v>
+        <v>0.1396466387806274</v>
       </c>
       <c r="M10">
-        <v>1.468294019183872</v>
+        <v>0.1056768688032683</v>
       </c>
       <c r="N10">
-        <v>0.3021906518570319</v>
+        <v>0.05445217285644688</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.500388530029596</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3199550908572633</v>
       </c>
       <c r="Q10">
-        <v>1.485133082674452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.336828768158611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.775038617410814</v>
+        <v>1.751003998150907</v>
       </c>
       <c r="C11">
-        <v>0.1715922010594397</v>
+        <v>0.1748167893211559</v>
       </c>
       <c r="D11">
-        <v>0.1743868259637509</v>
+        <v>0.1815920295373417</v>
       </c>
       <c r="E11">
-        <v>0.07495745861227832</v>
+        <v>0.07197621288903377</v>
       </c>
       <c r="F11">
-        <v>0.6692649003547544</v>
+        <v>0.6021463200280408</v>
       </c>
       <c r="G11">
-        <v>0.3896090686915485</v>
+        <v>0.3821078067782651</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.002650680281860218</v>
+        <v>0.002471481553389943</v>
       </c>
       <c r="J11">
-        <v>0.3370897800438755</v>
+        <v>0.2837757876762836</v>
       </c>
       <c r="K11">
-        <v>0.3588348941872432</v>
+        <v>0.3102054878659004</v>
       </c>
       <c r="L11">
-        <v>0.05971103012809564</v>
+        <v>0.1340949129252316</v>
       </c>
       <c r="M11">
-        <v>1.573134932293584</v>
+        <v>0.1042115576385996</v>
       </c>
       <c r="N11">
-        <v>0.3223023091613584</v>
+        <v>0.05370093984897117</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.605749884102295</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3414791191579809</v>
       </c>
       <c r="Q11">
-        <v>1.479210975200843</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.301257616840175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.81980848321723</v>
+        <v>1.795361085041407</v>
       </c>
       <c r="C12">
-        <v>0.1735836393830539</v>
+        <v>0.1770386859361395</v>
       </c>
       <c r="D12">
-        <v>0.1780962762006197</v>
+        <v>0.1864870982447258</v>
       </c>
       <c r="E12">
-        <v>0.07580544521357524</v>
+        <v>0.07292766435261555</v>
       </c>
       <c r="F12">
-        <v>0.6727452662737861</v>
+        <v>0.6002751973945593</v>
       </c>
       <c r="G12">
-        <v>0.3908659414802003</v>
+        <v>0.396457355179173</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.002420457450459601</v>
+        <v>0.002320333032509225</v>
       </c>
       <c r="J12">
-        <v>0.33632396272845</v>
+        <v>0.2706542338675106</v>
       </c>
       <c r="K12">
-        <v>0.357334893529643</v>
+        <v>0.3063816431977173</v>
       </c>
       <c r="L12">
-        <v>0.05961017687885217</v>
+        <v>0.1321715394420604</v>
       </c>
       <c r="M12">
-        <v>1.611909135842097</v>
+        <v>0.1038321046800306</v>
       </c>
       <c r="N12">
-        <v>0.3294835550408806</v>
+        <v>0.05349502028884778</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.644456079665531</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.3491847012811036</v>
       </c>
       <c r="Q12">
-        <v>1.480352949215742</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.28843063532797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.810354405132898</v>
+        <v>1.785985051319642</v>
       </c>
       <c r="C13">
-        <v>0.1730430258349145</v>
+        <v>0.1764374158380235</v>
       </c>
       <c r="D13">
-        <v>0.1772790702916183</v>
+        <v>0.1854033727346689</v>
       </c>
       <c r="E13">
-        <v>0.07563700260989847</v>
+        <v>0.07273483430286376</v>
       </c>
       <c r="F13">
-        <v>0.6722250197929895</v>
+        <v>0.6009300946551264</v>
       </c>
       <c r="G13">
-        <v>0.390779896098195</v>
+        <v>0.3933903630554951</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.002420105780644555</v>
+        <v>0.002294432765214793</v>
       </c>
       <c r="J13">
-        <v>0.3365837862350674</v>
+        <v>0.2735409880166486</v>
       </c>
       <c r="K13">
-        <v>0.3578160491865994</v>
+        <v>0.3073554347648333</v>
       </c>
       <c r="L13">
-        <v>0.05965084006949795</v>
+        <v>0.1326327837658745</v>
       </c>
       <c r="M13">
-        <v>1.603360676108537</v>
+        <v>0.1039767978407227</v>
       </c>
       <c r="N13">
-        <v>0.327837323357457</v>
+        <v>0.05355669595184587</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.635933840307757</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.3474241990002724</v>
       </c>
       <c r="Q13">
-        <v>1.480697225194916</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.291825698372492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.778801615047627</v>
+        <v>1.754728275589457</v>
       </c>
       <c r="C14">
-        <v>0.1717085901351965</v>
+        <v>0.1749475335245734</v>
       </c>
       <c r="D14">
-        <v>0.174684205939414</v>
+        <v>0.1819819776444263</v>
       </c>
       <c r="E14">
-        <v>0.07503323965138264</v>
+        <v>0.07205957150701892</v>
       </c>
       <c r="F14">
-        <v>0.6696485298364507</v>
+        <v>0.6021007041749868</v>
       </c>
       <c r="G14">
-        <v>0.3897908309009424</v>
+        <v>0.3832940146205246</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.002610128469322959</v>
+        <v>0.00243378256791793</v>
       </c>
       <c r="J14">
-        <v>0.3370670511484093</v>
+        <v>0.2827281745234487</v>
       </c>
       <c r="K14">
-        <v>0.3587786217114974</v>
+        <v>0.3099555992449226</v>
       </c>
       <c r="L14">
-        <v>0.05971077728557361</v>
+        <v>0.1339571763870353</v>
       </c>
       <c r="M14">
-        <v>1.576240906889041</v>
+        <v>0.1042071244047342</v>
       </c>
       <c r="N14">
-        <v>0.3228507420089812</v>
+        <v>0.05369138729322387</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.608855455172176</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.3420701240003581</v>
       </c>
       <c r="Q14">
-        <v>1.479555415595087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.300475069807788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.759105310661596</v>
+        <v>1.735241261142278</v>
       </c>
       <c r="C15">
-        <v>0.1711117859645981</v>
+        <v>0.1742715994278967</v>
       </c>
       <c r="D15">
-        <v>0.1731315875330495</v>
+        <v>0.1799549939535723</v>
       </c>
       <c r="E15">
-        <v>0.07463583813023078</v>
+        <v>0.07162407023297845</v>
       </c>
       <c r="F15">
-        <v>0.667624556053461</v>
+        <v>0.6022840526995594</v>
       </c>
       <c r="G15">
-        <v>0.3888257344455113</v>
+        <v>0.3772234133520698</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.002831592295570395</v>
+        <v>0.002641235982880907</v>
       </c>
       <c r="J15">
-        <v>0.3371786583133414</v>
+        <v>0.2881704197444606</v>
       </c>
       <c r="K15">
-        <v>0.3590596903966841</v>
+        <v>0.3112340855413152</v>
       </c>
       <c r="L15">
-        <v>0.05971043603339155</v>
+        <v>0.1346692335177817</v>
       </c>
       <c r="M15">
-        <v>1.560020123247682</v>
+        <v>0.1042203015060359</v>
       </c>
       <c r="N15">
-        <v>0.3199945868492193</v>
+        <v>0.05373930501492907</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.592626124670829</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.3389913417841228</v>
       </c>
       <c r="Q15">
-        <v>1.477708035289439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.304423139835777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.648595859055519</v>
+        <v>1.626195686588488</v>
       </c>
       <c r="C16">
-        <v>0.1663216110295025</v>
+        <v>0.1685036859288687</v>
       </c>
       <c r="D16">
-        <v>0.1640478043612745</v>
+        <v>0.168613626249396</v>
       </c>
       <c r="E16">
-        <v>0.07255767160006243</v>
+        <v>0.06939152057685405</v>
       </c>
       <c r="F16">
-        <v>0.6592702336782565</v>
+        <v>0.6044850155381951</v>
       </c>
       <c r="G16">
-        <v>0.3858896270353611</v>
+        <v>0.3516458050095892</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.003597209529018208</v>
+        <v>0.003191563866728586</v>
       </c>
       <c r="J16">
-        <v>0.3391747677434367</v>
+        <v>0.3176545342684065</v>
       </c>
       <c r="K16">
-        <v>0.362843450441062</v>
+        <v>0.3196134022361363</v>
       </c>
       <c r="L16">
-        <v>0.05996304363435456</v>
+        <v>0.1391770767443532</v>
       </c>
       <c r="M16">
-        <v>1.464684548039003</v>
+        <v>0.1048154242568149</v>
       </c>
       <c r="N16">
-        <v>0.3024970290705511</v>
+        <v>0.0542136904935635</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.496717293008402</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.3201931224848096</v>
       </c>
       <c r="Q16">
-        <v>1.475460285420169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.329642739645635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.580809081641064</v>
+        <v>1.559566074444916</v>
       </c>
       <c r="C17">
-        <v>0.1633986610353446</v>
+        <v>0.1647179666895653</v>
       </c>
       <c r="D17">
-        <v>0.1585035261745418</v>
+        <v>0.1620738859268585</v>
       </c>
       <c r="E17">
-        <v>0.07129789592249836</v>
+        <v>0.06809525193702015</v>
       </c>
       <c r="F17">
-        <v>0.6544041288039821</v>
+        <v>0.6044886173837227</v>
       </c>
       <c r="G17">
-        <v>0.3842843066402892</v>
+        <v>0.3413400968330151</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.004161865326618219</v>
+        <v>0.003609399761722365</v>
       </c>
       <c r="J17">
-        <v>0.340516304047263</v>
+        <v>0.3320121322488845</v>
       </c>
       <c r="K17">
-        <v>0.3653005478109677</v>
+        <v>0.3241786483724525</v>
       </c>
       <c r="L17">
-        <v>0.06013047423931184</v>
+        <v>0.1417988871930529</v>
       </c>
       <c r="M17">
-        <v>1.406250895111697</v>
+        <v>0.1050261615569585</v>
       </c>
       <c r="N17">
-        <v>0.2918386231828549</v>
+        <v>0.05449282993003379</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.437485508654561</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.3087333798154646</v>
       </c>
       <c r="Q17">
-        <v>1.47473954159814</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.341474811755788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.542756222107329</v>
+        <v>1.522251613401124</v>
       </c>
       <c r="C18">
-        <v>0.1611678776097918</v>
+        <v>0.1618034729507798</v>
       </c>
       <c r="D18">
-        <v>0.1552364327935578</v>
+        <v>0.1583684118897111</v>
       </c>
       <c r="E18">
-        <v>0.07065174494393389</v>
+        <v>0.06744548766524616</v>
       </c>
       <c r="F18">
-        <v>0.6528859354016348</v>
+        <v>0.6051351192918375</v>
       </c>
       <c r="G18">
-        <v>0.3843864403760406</v>
+        <v>0.3380459505991027</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.004244384181346206</v>
+        <v>0.003552781577429442</v>
       </c>
       <c r="J18">
-        <v>0.3418248937583783</v>
+        <v>0.3389151757818567</v>
       </c>
       <c r="K18">
-        <v>0.36757845531017</v>
+        <v>0.3273185670392884</v>
       </c>
       <c r="L18">
-        <v>0.06032837564896276</v>
+        <v>0.1435129201704015</v>
       </c>
       <c r="M18">
-        <v>1.371679152029202</v>
+        <v>0.1053787669417581</v>
       </c>
       <c r="N18">
-        <v>0.2852457016009851</v>
+        <v>0.05473631241988386</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.402295686656032</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.3016720218762856</v>
       </c>
       <c r="Q18">
-        <v>1.477622850738825</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.349816575375442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.529150074524637</v>
+        <v>1.508922966340037</v>
       </c>
       <c r="C19">
-        <v>0.1608411185398637</v>
+        <v>0.1613016271119392</v>
       </c>
       <c r="D19">
-        <v>0.1541999817949318</v>
+        <v>0.1572057309836339</v>
       </c>
       <c r="E19">
-        <v>0.07037757640842202</v>
+        <v>0.06717533554587263</v>
       </c>
       <c r="F19">
-        <v>0.6514713183805227</v>
+        <v>0.6044117952734283</v>
       </c>
       <c r="G19">
-        <v>0.3836957520619109</v>
+        <v>0.3365250313009298</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.004487596366481661</v>
+        <v>0.00378628529716174</v>
       </c>
       <c r="J19">
-        <v>0.3418934418853397</v>
+        <v>0.3405606316586969</v>
       </c>
       <c r="K19">
-        <v>0.3677286433575588</v>
+        <v>0.3277914210176824</v>
       </c>
       <c r="L19">
-        <v>0.06032125922746445</v>
+        <v>0.1438786562647092</v>
       </c>
       <c r="M19">
-        <v>1.360731243445855</v>
+        <v>0.105276334101605</v>
       </c>
       <c r="N19">
-        <v>0.2833952920942266</v>
+        <v>0.05475072644690115</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.391114292174962</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2996684594513113</v>
       </c>
       <c r="Q19">
-        <v>1.476276989800795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.350240258336456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.588098551282684</v>
+        <v>1.56672168481947</v>
       </c>
       <c r="C20">
-        <v>0.1636655536255489</v>
+        <v>0.1650791526759718</v>
       </c>
       <c r="D20">
-        <v>0.1590857525169014</v>
+        <v>0.1627479946480008</v>
       </c>
       <c r="E20">
-        <v>0.07143716629183317</v>
+        <v>0.06823611663333651</v>
       </c>
       <c r="F20">
-        <v>0.6550056092019503</v>
+        <v>0.6046253035866158</v>
       </c>
       <c r="G20">
-        <v>0.384522794879139</v>
+        <v>0.3423223072813357</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.00407637500492708</v>
+        <v>0.003536003129109844</v>
       </c>
       <c r="J20">
-        <v>0.3404078766549929</v>
+        <v>0.3306986030328929</v>
       </c>
       <c r="K20">
-        <v>0.3650977773046726</v>
+        <v>0.3237702513404699</v>
       </c>
       <c r="L20">
-        <v>0.06011978638302296</v>
+        <v>0.1415460578628345</v>
       </c>
       <c r="M20">
-        <v>1.412392599777121</v>
+        <v>0.1050307931633316</v>
       </c>
       <c r="N20">
-        <v>0.2929320100663517</v>
+        <v>0.05447038309049468</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.443728370306218</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3099115744713998</v>
       </c>
       <c r="Q20">
-        <v>1.475031664948858</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.340571288377504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.787015750439963</v>
+        <v>1.763356093207477</v>
       </c>
       <c r="C21">
-        <v>0.1727243712663693</v>
+        <v>0.1756609201350301</v>
       </c>
       <c r="D21">
-        <v>0.1755442125174369</v>
+        <v>0.1836990328361736</v>
       </c>
       <c r="E21">
-        <v>0.07512875814007458</v>
+        <v>0.07227419289393566</v>
       </c>
       <c r="F21">
-        <v>0.669079945812868</v>
+        <v>0.5980329837159104</v>
       </c>
       <c r="G21">
-        <v>0.3890162739079628</v>
+        <v>0.3931564848746092</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.00283231510898041</v>
+        <v>0.002729278969953342</v>
       </c>
       <c r="J21">
-        <v>0.3363751316060117</v>
+        <v>0.2726759122933302</v>
       </c>
       <c r="K21">
-        <v>0.3575896906576794</v>
+        <v>0.3073157194534346</v>
       </c>
       <c r="L21">
-        <v>0.05958523411150551</v>
+        <v>0.1329462564295802</v>
       </c>
       <c r="M21">
-        <v>1.58530316885367</v>
+        <v>0.1033440662987708</v>
       </c>
       <c r="N21">
-        <v>0.3248606570104329</v>
+        <v>0.05352082477447695</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.617199009519027</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3441781031221183</v>
       </c>
       <c r="Q21">
-        <v>1.476481107595816</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.288149271023144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.918408242417115</v>
+        <v>1.893357360389018</v>
       </c>
       <c r="C22">
-        <v>0.1779080986686239</v>
+        <v>0.1815858915960007</v>
       </c>
       <c r="D22">
-        <v>0.1862731918366904</v>
+        <v>0.1977292673391844</v>
       </c>
       <c r="E22">
-        <v>0.07769601372022805</v>
+        <v>0.07511507334979228</v>
       </c>
       <c r="F22">
-        <v>0.6808341256053438</v>
+        <v>0.594837972776638</v>
       </c>
       <c r="G22">
-        <v>0.393967911975416</v>
+        <v>0.4356272549254925</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.001981137229218</v>
+        <v>0.002027316149149527</v>
       </c>
       <c r="J22">
-        <v>0.3348292026337703</v>
+        <v>0.2430161139351448</v>
       </c>
       <c r="K22">
-        <v>0.3542882084020142</v>
+        <v>0.2974705902122849</v>
       </c>
       <c r="L22">
-        <v>0.05941417990559827</v>
+        <v>0.127879705593422</v>
       </c>
       <c r="M22">
-        <v>1.697117723077014</v>
+        <v>0.1028190036521863</v>
       </c>
       <c r="N22">
-        <v>0.3452949374767513</v>
+        <v>0.05304177607097138</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.729024700473616</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3661399316623601</v>
       </c>
       <c r="Q22">
-        <v>1.483975239100474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.256745673506231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.84954635841234</v>
+        <v>1.824863083900567</v>
       </c>
       <c r="C23">
-        <v>0.1743846124959987</v>
+        <v>0.1778698351727712</v>
       </c>
       <c r="D23">
-        <v>0.1804192195337606</v>
+        <v>0.189643698543307</v>
       </c>
       <c r="E23">
-        <v>0.07641941391478113</v>
+        <v>0.07361704551904324</v>
       </c>
       <c r="F23">
-        <v>0.6760705722753144</v>
+        <v>0.5997863064157727</v>
       </c>
       <c r="G23">
-        <v>0.3925423786024638</v>
+        <v>0.4077046222470102</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.002086296486850436</v>
+        <v>0.001995787409673433</v>
       </c>
       <c r="J23">
-        <v>0.3362778302549501</v>
+        <v>0.2624645937935455</v>
       </c>
       <c r="K23">
-        <v>0.3570974385211123</v>
+        <v>0.304411000321533</v>
       </c>
       <c r="L23">
-        <v>0.0596315382130328</v>
+        <v>0.1311047579744358</v>
       </c>
       <c r="M23">
-        <v>1.636095443461556</v>
+        <v>0.1038093491639138</v>
       </c>
       <c r="N23">
-        <v>0.3337052468525883</v>
+        <v>0.05343479366384862</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.668522120914787</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3537370305982392</v>
       </c>
       <c r="Q23">
-        <v>1.483862477349248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.281902038099815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.586786949317144</v>
+        <v>1.565435070972967</v>
       </c>
       <c r="C24">
-        <v>0.1623736770797493</v>
+        <v>0.163546615356438</v>
       </c>
       <c r="D24">
-        <v>0.1586359089209708</v>
+        <v>0.1622560708140526</v>
       </c>
       <c r="E24">
-        <v>0.07152877134954849</v>
+        <v>0.06832161147571369</v>
       </c>
       <c r="F24">
-        <v>0.6572479346092663</v>
+        <v>0.6069266677159888</v>
       </c>
       <c r="G24">
-        <v>0.3864379699517713</v>
+        <v>0.3437742537705617</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.003571876193090517</v>
+        <v>0.002927503151888722</v>
       </c>
       <c r="J24">
-        <v>0.3415037341559</v>
+        <v>0.332235777645721</v>
       </c>
       <c r="K24">
-        <v>0.3669171560708655</v>
+        <v>0.3254734481109303</v>
       </c>
       <c r="L24">
-        <v>0.06033019828341146</v>
+        <v>0.1422096519127987</v>
       </c>
       <c r="M24">
-        <v>1.407543786997053</v>
+        <v>0.1056242115561723</v>
       </c>
       <c r="N24">
-        <v>0.2914027336455689</v>
+        <v>0.05466494650486098</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.438829096858058</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3083287774739176</v>
       </c>
       <c r="Q24">
-        <v>1.481380829117526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.346951790263404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.303420237952139</v>
+        <v>1.288973917497088</v>
       </c>
       <c r="C25">
-        <v>0.1495745226432774</v>
+        <v>0.144826809526478</v>
       </c>
       <c r="D25">
-        <v>0.1355105282414968</v>
+        <v>0.1380640635101855</v>
       </c>
       <c r="E25">
-        <v>0.06646646133244261</v>
+        <v>0.06356178605473239</v>
       </c>
       <c r="F25">
-        <v>0.6405885389780366</v>
+        <v>0.597228221425631</v>
       </c>
       <c r="G25">
-        <v>0.3826070987657673</v>
+        <v>0.340694049915804</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.006337620797975063</v>
+        <v>0.004917427333257507</v>
       </c>
       <c r="J25">
-        <v>0.3487995311243353</v>
+        <v>0.3438034948493538</v>
       </c>
       <c r="K25">
-        <v>0.3794593419819101</v>
+        <v>0.3406528786423735</v>
       </c>
       <c r="L25">
-        <v>0.0612667403213365</v>
+        <v>0.1520304479168626</v>
       </c>
       <c r="M25">
-        <v>1.161535935727528</v>
+        <v>0.1059636897118441</v>
       </c>
       <c r="N25">
-        <v>0.2467400489963012</v>
+        <v>0.05584474486901669</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.185823390397047</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2603108325622685</v>
       </c>
       <c r="Q25">
-        <v>1.487986353539</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.369625504960297</v>
       </c>
     </row>
   </sheetData>
